--- a/public/template/imb_induk_non_perum_contoh.xlsx
+++ b/public/template/imb_induk_non_perum_contoh.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/reksasyahputra/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CB19E5E-FF4B-D44D-9386-40F27C407023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8118052B-868E-40A6-852C-678C11ED7D7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{F24037F0-C733-FF4A-83F6-82773E70C649}"/>
+    <workbookView xWindow="2450" yWindow="4700" windowWidth="14400" windowHeight="5180" xr2:uid="{F24037F0-C733-FF4A-83F6-82773E70C649}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,20 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>Contoh Jenis</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>No.</t>
   </si>
   <si>
-    <t xml:space="preserve">No. IMB </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tgl. IMB </t>
-  </si>
-  <si>
     <t>No. Register</t>
   </si>
   <si>
@@ -61,9 +48,6 @@
     <t>Atas Nama</t>
   </si>
   <si>
-    <t xml:space="preserve">Lokasi </t>
-  </si>
-  <si>
     <t>Kecamatan</t>
   </si>
   <si>
@@ -116,13 +100,49 @@
   </si>
   <si>
     <t>perorangan</t>
+  </si>
+  <si>
+    <t>Kabupaten / Kota</t>
+  </si>
+  <si>
+    <t>KOTA BOGOR</t>
+  </si>
+  <si>
+    <t>IMB Induk</t>
+  </si>
+  <si>
+    <t>Tgl. IMB Induk</t>
+  </si>
+  <si>
+    <t>30-06-2002</t>
+  </si>
+  <si>
+    <t>Jenis</t>
+  </si>
+  <si>
+    <t>20-02-2000</t>
+  </si>
+  <si>
+    <t>Lokasi / Perumahan</t>
+  </si>
+  <si>
+    <t>Kp Pondok Bitung</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>T33</t>
+  </si>
+  <si>
+    <t>Jumlah Unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -158,6 +178,14 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +236,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -237,9 +265,6 @@
     <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -248,6 +273,24 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -565,119 +608,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80EDF758-1D7C-4B4D-AA2A-EC39F6675BAD}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="I1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="O1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="Q1" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="U1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:21" ht="31" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
       </c>
       <c r="B2" s="7">
         <v>50</v>
       </c>
       <c r="C2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="9">
-        <v>36980</v>
-      </c>
-      <c r="E2" s="9" t="s">
+      <c r="M2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="10">
-        <v>36578</v>
-      </c>
-      <c r="G2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="O2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" s="12">
+        <v>46.08</v>
+      </c>
+      <c r="Q2" s="18">
+        <v>54</v>
+      </c>
+      <c r="R2" s="12"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="13" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="13">
-        <v>46.08</v>
-      </c>
-      <c r="O2" s="13"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>